--- a/projects/6/web_fastapi_api_bot/web/data321.xlsx
+++ b/projects/6/web_fastapi_api_bot/web/data321.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\projects\6\web_fastapi_api_bot\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5779A3A5-4320-448D-9E55-5446C2455DDB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFCC184-7DE9-4E32-8ACE-ADDE3BF8EDB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,10 +42,10 @@
     <t>count</t>
   </si>
   <si>
-    <t>Рубашка</t>
-  </si>
-  <si>
-    <t>Чёрная</t>
+    <t>Носки</t>
+  </si>
+  <si>
+    <t>Белые</t>
   </si>
 </sst>
 </file>
@@ -399,16 +399,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="38.4" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="43.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="36.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -432,7 +432,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -441,10 +441,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">

--- a/projects/6/web_fastapi_api_bot/web/data321.xlsx
+++ b/projects/6/web_fastapi_api_bot/web/data321.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github_projects\PyE-231\projects\6\web_fastapi_api_bot\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFCC184-7DE9-4E32-8ACE-ADDE3BF8EDB5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445A4696-311A-4E9E-B148-A91E6C4DB45C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,10 +42,10 @@
     <t>count</t>
   </si>
   <si>
-    <t>Носки</t>
-  </si>
-  <si>
-    <t>Белые</t>
+    <t>Овощи</t>
+  </si>
+  <si>
+    <t>Вкусные</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="38.4" x14ac:dyDescent="0.7"/>
@@ -432,7 +432,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.7">
       <c r="A2" s="2">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -441,10 +441,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.7">
